--- a/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/MonthlyTimes.xlsx
+++ b/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/MonthlyTimes.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias Alfano\Source\Repos\Logictracker 4.0\Logictracker\Logictracker\src\Web\Logictracker\Logictracker.Web\ExcelTemplate\Logictracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="14115" windowHeight="5700"/>
   </bookViews>
@@ -10,13 +15,13 @@
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Base">Informe!$B$7</definedName>
-    <definedName name="Desde">Informe!$B$10</definedName>
-    <definedName name="Distrito">Informe!$B$6</definedName>
-    <definedName name="Hasta">Informe!$B$11</definedName>
-    <definedName name="Tipo_de_Vehículo">Informe!$B$8</definedName>
+    <definedName name="DESDE">Informe!$B$10</definedName>
+    <definedName name="HASTA">Informe!$B$11</definedName>
+    <definedName name="PARENTI01">Informe!$B$6</definedName>
+    <definedName name="PARENTI02">Informe!$B$7</definedName>
+    <definedName name="PARENTI03">Informe!$B$9</definedName>
+    <definedName name="PARENTI17">Informe!$B$8</definedName>
     <definedName name="Titulo">Informe!$D$1</definedName>
-    <definedName name="Vehículo">Informe!$B$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -606,6 +611,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -613,7 +621,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -680,11 +688,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="168505856"/>
-        <c:axId val="38390592"/>
+        <c:axId val="120018704"/>
+        <c:axId val="120019264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168505856"/>
+        <c:axId val="120018704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +712,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38390592"/>
+        <c:crossAx val="120019264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -712,7 +720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38390592"/>
+        <c:axId val="120019264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +741,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168505856"/>
+        <c:crossAx val="120018704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -887,7 +895,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -922,7 +930,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
